--- a/src/main/resources/jxls_templates/vendorclass_import.xlsx
+++ b/src/main/resources/jxls_templates/vendorclass_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="26704" windowHeight="11748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>供应商分类导入</t>
   </si>
   <si>
     <t>*父级供应商分类编码</t>
-  </si>
-  <si>
-    <t>*父级供应商分类名称</t>
   </si>
   <si>
     <t>*供应商分类编码</t>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>供应商</t>
   </si>
   <si>
     <t>C01</t>
@@ -684,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1019,90 +1016,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.89473684210526" defaultRowHeight="12.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="11" width="11.5583333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.89166666666667" style="2"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5614035087719" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="10" width="11.5614035087719" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.89473684210526" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:11">
+    <row r="1" ht="24.95" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="12.85" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
